--- a/biology/Botanique/Gracilariaceae/Gracilariaceae.xlsx
+++ b/biology/Botanique/Gracilariaceae/Gracilariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gracilariaceae sont une famille d’algues rouges de l’ordre des Gracilariales. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 mars 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 mars 2013) :
 genre Congracilaria Yamamoto
 genre Curdiea Harvey
 genre Gracilaria Greville
@@ -521,7 +535,7 @@
 genre Gracilariopsis E.Y.Dawson
 genre Hydropuntia Montagne
 genre Melanthalia Montagne
-Selon ITIS      (17 mars 2013)[2] :
+Selon ITIS      (17 mars 2013) :
 genre Ceratodictyon Zanardini, 1878
 genre Curdiea W. H. Harvey, 1855
 genre Gracilaria Grev.
@@ -529,14 +543,14 @@
 genre Gracilariopsis E. Y. Dawson, 1949
 genre Hydropuntia Mont.
 genre Melanthalia Montagne, 1843
-Selon NCBI  (17 mars 2013)[3] :
+Selon NCBI  (17 mars 2013) :
 genre Curdiea
 genre Gracilaria
 genre Gracilariophila
 genre Gracilariopsis
 genre Hydropuntia
 genre Melanthalia
-Selon World Register of Marine Species                               (17 mars 2013)[4] :
+Selon World Register of Marine Species                               (17 mars 2013) :
 genre Congracilaria Yamamoto, 1986
 genre Curdiea Harvey, 1855
 genre Gracilaria Greville, 1830
